--- a/rough quote.xlsx
+++ b/rough quote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\advanced diploma\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m234676\Documents\GitHub\mecanum-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t xml:space="preserve">Component </t>
   </si>
@@ -196,15 +196,41 @@
       <t xml:space="preserve"> Round Bar</t>
     </r>
   </si>
+  <si>
+    <t>Control System</t>
+  </si>
+  <si>
+    <t>Magnetic Field Sensor</t>
+  </si>
+  <si>
+    <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Magnetic Tape (10 m)</t>
+  </si>
+  <si>
+    <t>Roboteq</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>Control System Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +265,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -279,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -315,6 +347,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -322,19 +366,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -434,6 +465,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -454,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
-  <autoFilter ref="A1:G25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G31">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -465,15 +509,15 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Component " dataDxfId="7"/>
-    <tableColumn id="2" name="Use/ Notes " dataDxfId="6"/>
-    <tableColumn id="6" name="Material" dataDxfId="5"/>
-    <tableColumn id="3" name="Cost per Unit including GST                ($) " dataDxfId="4"/>
-    <tableColumn id="4" name="Amount Required" dataDxfId="3"/>
-    <tableColumn id="5" name="Total Cost   ($)" dataDxfId="2">
+    <tableColumn id="1" name="Component " dataDxfId="6"/>
+    <tableColumn id="2" name="Use/ Notes " dataDxfId="5"/>
+    <tableColumn id="6" name="Material" dataDxfId="4"/>
+    <tableColumn id="3" name="Cost per Unit including GST                ($) " dataDxfId="3"/>
+    <tableColumn id="4" name="Amount Required" dataDxfId="2"/>
+    <tableColumn id="5" name="Total Cost   ($)" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Supplier " dataDxfId="1"/>
+    <tableColumn id="7" name="Supplier " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -742,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1291,114 @@
       </c>
       <c r="G25" s="12"/>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14">
+        <f>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15">
+        <v>485</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14">
+        <f>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</f>
+        <v>485</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
+        <v>46.4</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+      <c r="F28" s="14">
+        <f>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</f>
+        <v>92.8</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="E29" s="13">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14">
+        <f>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</f>
+        <v>6.72</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
+        <v>12.18</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4</v>
+      </c>
+      <c r="F30" s="14">
+        <f>Table1[[#This Row],[Cost per Unit including GST                ($) ]]*Table1[[#This Row],[Amount Required]]</f>
+        <v>48.72</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6">
+        <f>F27+F28+F29+F30</f>
+        <v>633.24</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
